--- a/medicine/Sexualité et sexologie/Neil_Strauss/Neil_Strauss.xlsx
+++ b/medicine/Sexualité et sexologie/Neil_Strauss/Neil_Strauss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neil Strauss (né le 13 octobre 1973[réf. nécessaire] ), aussi connu sous les pseudonymes de Style et Chris Powles, est un coach en séduction pour homme américain (en anglais, pick up artist, ou PUA).
 Il est surtout connu pour être l'auteur du livre autobiographique The Game : Les secrets d'un virtuose de la drague, où il décrit son expérience de la communauté de la séduction.
